--- a/BalanceSheet/COF_bal.xlsx
+++ b/BalanceSheet/COF_bal.xlsx
@@ -3973,7 +3973,7 @@
         <v>30381000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>43704000000.0</v>
+        <v>59111000000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>32148000000.0</v>
@@ -4100,7 +4100,7 @@
         <v>55681000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>57453000000.0</v>
+        <v>72860000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>49685000000.0</v>
